--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lee\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57284503-8794-4E15-841E-D7DA4847648C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87587E72-12B9-4480-A662-81CDD77CCFE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,20 +41,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF32A4BE"/>
-      <name val="SourceSansPro-Bold"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -84,12 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -370,16 +360,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -387,15 +377,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -403,7 +393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -412,7 +402,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
